--- a/jdbc-connectivity-demo/reference-resources/sql-demo.xlsx
+++ b/jdbc-connectivity-demo/reference-resources/sql-demo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kodtodya\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_kodtodya\java-examples\jdbc-connectivity-demo\reference-resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48773FBD-7E23-4655-9D12-061FFDE1D85A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F04E9CD-2DCF-4FCD-8CA0-75DC97FEC5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="525" activeTab="2" xr2:uid="{A94BA0F8-7E7E-4895-8A0A-F5F2FBAAE475}"/>
   </bookViews>
@@ -498,7 +498,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -508,11 +508,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -540,9 +538,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -580,7 +578,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -686,7 +684,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -828,7 +826,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -849,10 +847,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
@@ -995,7 +993,7 @@
   <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="B18" sqref="B18:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1006,16 +1004,16 @@
     <col min="4" max="4" width="4.88671875" style="3" customWidth="1"/>
     <col min="5" max="5" width="67.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.44140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="56.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
       <c r="D1" s="4"/>
       <c r="E1" s="6" t="s">
         <v>63</v>
@@ -1036,7 +1034,7 @@
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1054,7 +1052,7 @@
         <f>"INSERT INTO student(student_id, name, address_id) VALUES ("&amp;A3&amp;", '"&amp;B3&amp;"', "&amp;C3&amp;");"</f>
         <v>INSERT INTO student(student_id, name, address_id) VALUES (1, 'abc1', 1);</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3">
         <v>36.659999999999997</v>
       </c>
       <c r="H3" t="str">
@@ -1076,7 +1074,7 @@
         <f t="shared" ref="E4:E50" si="0">"INSERT INTO student(student_id, name, address_id) VALUES ("&amp;A4&amp;", '"&amp;B4&amp;"', "&amp;C4&amp;");"</f>
         <v>INSERT INTO student(student_id, name, address_id) VALUES (2, 'abc2', 2);</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4">
         <v>37.659999999999997</v>
       </c>
       <c r="H4" t="str">
@@ -1098,7 +1096,7 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO student(student_id, name, address_id) VALUES (3, 'abc3', 3);</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5">
         <v>38.659999999999997</v>
       </c>
       <c r="H5" t="str">
@@ -1120,7 +1118,7 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO student(student_id, name, address_id) VALUES (4, 'abc4', 4);</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6">
         <v>39.659999999999997</v>
       </c>
       <c r="H6" t="str">
@@ -1142,7 +1140,7 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO student(student_id, name, address_id) VALUES (5, 'abc5', 1);</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7">
         <v>40.659999999999997</v>
       </c>
       <c r="H7" t="str">
@@ -1164,7 +1162,7 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO student(student_id, name, address_id) VALUES (6, 'abc6', 2);</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8">
         <v>41.66</v>
       </c>
       <c r="H8" t="str">
@@ -1186,7 +1184,7 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO student(student_id, name, address_id) VALUES (7, 'abc7', 3);</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9">
         <v>42.66</v>
       </c>
       <c r="H9" t="str">
@@ -1208,7 +1206,7 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO student(student_id, name, address_id) VALUES (8, 'abc8', 4);</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10">
         <v>43.66</v>
       </c>
       <c r="H10" t="str">
@@ -1230,7 +1228,7 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO student(student_id, name, address_id) VALUES (9, 'abc9', 1);</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11">
         <v>44.66</v>
       </c>
       <c r="H11" t="str">
@@ -1252,7 +1250,7 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO student(student_id, name, address_id) VALUES (10, 'abc10', 2);</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12">
         <v>45.66</v>
       </c>
       <c r="H12" t="str">
@@ -1274,7 +1272,7 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO student(student_id, name, address_id) VALUES (11, 'abc11', 3);</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13">
         <v>46.66</v>
       </c>
       <c r="H13" t="str">
@@ -1296,7 +1294,7 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO student(student_id, name, address_id) VALUES (12, 'abc12', 4);</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14">
         <v>47.66</v>
       </c>
       <c r="H14" t="str">
@@ -1318,7 +1316,7 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO student(student_id, name, address_id) VALUES (13, 'abc13', 1);</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15">
         <v>48.66</v>
       </c>
       <c r="H15" t="str">
@@ -1340,7 +1338,7 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO student(student_id, name, address_id) VALUES (14, 'abc14', 2);</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16">
         <v>49.66</v>
       </c>
       <c r="H16" t="str">
@@ -1362,7 +1360,7 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO student(student_id, name, address_id) VALUES (15, 'abc15', 3);</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17">
         <v>50.66</v>
       </c>
       <c r="H17" t="str">
@@ -1384,7 +1382,7 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO student(student_id, name, address_id) VALUES (16, 'abc16', 4);</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18">
         <v>51.66</v>
       </c>
       <c r="H18" t="str">
@@ -1406,7 +1404,7 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO student(student_id, name, address_id) VALUES (17, 'abc17', 1);</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19">
         <v>52.66</v>
       </c>
       <c r="H19" t="str">
@@ -1428,7 +1426,7 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO student(student_id, name, address_id) VALUES (18, 'abc18', 2);</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20">
         <v>53.66</v>
       </c>
       <c r="H20" t="str">
@@ -1450,7 +1448,7 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO student(student_id, name, address_id) VALUES (19, 'abc19', 3);</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21">
         <v>54.66</v>
       </c>
       <c r="H21" t="str">
@@ -1472,7 +1470,7 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO student(student_id, name, address_id) VALUES (20, 'abc20', 4);</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22">
         <v>55.66</v>
       </c>
       <c r="H22" t="str">
@@ -1494,7 +1492,7 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO student(student_id, name, address_id) VALUES (21, 'abc21', 1);</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23">
         <v>56.66</v>
       </c>
       <c r="H23" t="str">
@@ -1516,7 +1514,7 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO student(student_id, name, address_id) VALUES (22, 'abc22', 2);</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G24">
         <v>57.66</v>
       </c>
       <c r="H24" t="str">
@@ -1538,7 +1536,7 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO student(student_id, name, address_id) VALUES (23, 'abc23', 3);</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25">
         <v>58.66</v>
       </c>
       <c r="H25" t="str">
@@ -1560,7 +1558,7 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO student(student_id, name, address_id) VALUES (24, 'abc24', 4);</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G26">
         <v>59.66</v>
       </c>
       <c r="H26" t="str">
@@ -1582,7 +1580,7 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO student(student_id, name, address_id) VALUES (25, 'abc25', 1);</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G27">
         <v>60.66</v>
       </c>
       <c r="H27" t="str">
@@ -1604,7 +1602,7 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO student(student_id, name, address_id) VALUES (26, 'abc26', 2);</v>
       </c>
-      <c r="G28" s="10">
+      <c r="G28">
         <v>61.66</v>
       </c>
       <c r="H28" t="str">
@@ -1626,7 +1624,7 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO student(student_id, name, address_id) VALUES (27, 'abc27', 3);</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G29">
         <v>62.66</v>
       </c>
       <c r="H29" t="str">
@@ -1648,7 +1646,7 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO student(student_id, name, address_id) VALUES (28, 'abc28', 4);</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G30">
         <v>63.66</v>
       </c>
       <c r="H30" t="str">
@@ -1670,7 +1668,7 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO student(student_id, name, address_id) VALUES (29, 'abc29', 1);</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G31">
         <v>64.66</v>
       </c>
       <c r="H31" t="str">
@@ -1692,7 +1690,7 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO student(student_id, name, address_id) VALUES (30, 'abc30', 2);</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G32">
         <v>65.66</v>
       </c>
       <c r="H32" t="str">
@@ -1714,7 +1712,7 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO student(student_id, name, address_id) VALUES (31, 'abc31', 3);</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G33">
         <v>66.66</v>
       </c>
       <c r="H33" t="str">
@@ -1736,7 +1734,7 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO student(student_id, name, address_id) VALUES (32, 'abc32', 4);</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G34">
         <v>67.66</v>
       </c>
       <c r="H34" t="str">
@@ -1758,7 +1756,7 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO student(student_id, name, address_id) VALUES (33, 'abc33', 1);</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G35">
         <v>68.66</v>
       </c>
       <c r="H35" t="str">
@@ -1780,7 +1778,7 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO student(student_id, name, address_id) VALUES (34, 'abc34', 2);</v>
       </c>
-      <c r="G36" s="10">
+      <c r="G36">
         <v>69.66</v>
       </c>
       <c r="H36" t="str">
@@ -1802,7 +1800,7 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO student(student_id, name, address_id) VALUES (35, 'abc35', 3);</v>
       </c>
-      <c r="G37" s="10">
+      <c r="G37">
         <v>70.66</v>
       </c>
       <c r="H37" t="str">
@@ -1824,7 +1822,7 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO student(student_id, name, address_id) VALUES (36, 'abc36', 4);</v>
       </c>
-      <c r="G38" s="10">
+      <c r="G38">
         <v>71.66</v>
       </c>
       <c r="H38" t="str">
@@ -1846,7 +1844,7 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO student(student_id, name, address_id) VALUES (37, 'abc37', 1);</v>
       </c>
-      <c r="G39" s="10">
+      <c r="G39">
         <v>72.66</v>
       </c>
       <c r="H39" t="str">
@@ -1868,7 +1866,7 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO student(student_id, name, address_id) VALUES (38, 'abc38', 2);</v>
       </c>
-      <c r="G40" s="10">
+      <c r="G40">
         <v>73.66</v>
       </c>
       <c r="H40" t="str">
@@ -1890,7 +1888,7 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO student(student_id, name, address_id) VALUES (39, 'abc39', 3);</v>
       </c>
-      <c r="G41" s="10">
+      <c r="G41">
         <v>74.66</v>
       </c>
       <c r="H41" t="str">
@@ -1912,7 +1910,7 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO student(student_id, name, address_id) VALUES (40, 'abc40', 4);</v>
       </c>
-      <c r="G42" s="10">
+      <c r="G42">
         <v>75.66</v>
       </c>
       <c r="H42" t="str">
@@ -1934,7 +1932,7 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO student(student_id, name, address_id) VALUES (41, 'abc41', 1);</v>
       </c>
-      <c r="G43" s="10">
+      <c r="G43">
         <v>76.66</v>
       </c>
       <c r="H43" t="str">
@@ -1956,7 +1954,7 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO student(student_id, name, address_id) VALUES (42, 'abc42', 2);</v>
       </c>
-      <c r="G44" s="10">
+      <c r="G44">
         <v>77.66</v>
       </c>
       <c r="H44" t="str">
@@ -1978,7 +1976,7 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO student(student_id, name, address_id) VALUES (43, 'abc43', 3);</v>
       </c>
-      <c r="G45" s="10">
+      <c r="G45">
         <v>78.66</v>
       </c>
       <c r="H45" t="str">
@@ -2000,7 +1998,7 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO student(student_id, name, address_id) VALUES (44, 'abc44', 4);</v>
       </c>
-      <c r="G46" s="10">
+      <c r="G46">
         <v>79.66</v>
       </c>
       <c r="H46" t="str">
@@ -2022,7 +2020,7 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO student(student_id, name, address_id) VALUES (45, 'abc45', 1);</v>
       </c>
-      <c r="G47" s="10">
+      <c r="G47">
         <v>80.66</v>
       </c>
       <c r="H47" t="str">
@@ -2044,7 +2042,7 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO student(student_id, name, address_id) VALUES (46, 'abc46', 2);</v>
       </c>
-      <c r="G48" s="10">
+      <c r="G48">
         <v>81.66</v>
       </c>
       <c r="H48" t="str">
@@ -2066,7 +2064,7 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO student(student_id, name, address_id) VALUES (47, 'abc47', 3);</v>
       </c>
-      <c r="G49" s="10">
+      <c r="G49">
         <v>82.66</v>
       </c>
       <c r="H49" t="str">
@@ -2088,7 +2086,7 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO student(student_id, name, address_id) VALUES (48, 'abc48', 4);</v>
       </c>
-      <c r="G50" s="10">
+      <c r="G50">
         <v>83.66</v>
       </c>
       <c r="H50" t="str">
@@ -2110,7 +2108,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F3" sqref="F3:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2125,19 +2123,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="33.6" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="G1" s="14" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="G1" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="2" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -2155,10 +2153,10 @@
       <c r="E2" t="s">
         <v>119</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -2176,10 +2174,14 @@
       <c r="E3">
         <v>10</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
+      <c r="F3" t="str">
+        <f>"INSERT INTO employee (employee_id, employee_name, salary, dept_name, manager_id) VALUES ("&amp;A3&amp;",'"&amp;B3&amp;"',"&amp;C3&amp;",'"&amp;D3&amp;"',"&amp;E3&amp;");"</f>
+        <v>INSERT INTO employee (employee_id, employee_name, salary, dept_name, manager_id) VALUES (1,'Abc1',20000,'IT1',10);</v>
+      </c>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -2197,10 +2199,14 @@
       <c r="E4">
         <v>5</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
+      <c r="F4" t="str">
+        <f t="shared" ref="F4:F25" si="0">"INSERT INTO employee (employee_id, employee_name, salary, dept_name, manager_id) VALUES ("&amp;A4&amp;",'"&amp;B4&amp;"',"&amp;C4&amp;",'"&amp;D4&amp;"',"&amp;E4&amp;");"</f>
+        <v>INSERT INTO employee (employee_id, employee_name, salary, dept_name, manager_id) VALUES (2,'Abc2',20001,'IT2',5);</v>
+      </c>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -2218,10 +2224,14 @@
       <c r="E5">
         <v>7</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO employee (employee_id, employee_name, salary, dept_name, manager_id) VALUES (3,'Abc3',324234242,'IT3',7);</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -2239,6 +2249,10 @@
       <c r="E6">
         <v>9</v>
       </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO employee (employee_id, employee_name, salary, dept_name, manager_id) VALUES (4,'Abc4',20003,'IT4',9);</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -2256,6 +2270,10 @@
       <c r="E7">
         <v>9</v>
       </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO employee (employee_id, employee_name, salary, dept_name, manager_id) VALUES (5,'Abc5',20004,'IT5',9);</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -2273,6 +2291,10 @@
       <c r="E8">
         <v>9</v>
       </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO employee (employee_id, employee_name, salary, dept_name, manager_id) VALUES (6,'Abc6',32422,'IT6',9);</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -2290,6 +2312,10 @@
       <c r="E9">
         <v>9</v>
       </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO employee (employee_id, employee_name, salary, dept_name, manager_id) VALUES (7,'Abc7',2424242,'IT7',9);</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -2307,6 +2333,10 @@
       <c r="E10">
         <v>9</v>
       </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO employee (employee_id, employee_name, salary, dept_name, manager_id) VALUES (8,'Abc8',789788,'IT8',9);</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -2324,6 +2354,10 @@
       <c r="E11">
         <v>9</v>
       </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO employee (employee_id, employee_name, salary, dept_name, manager_id) VALUES (9,'Abc9',20008,'IT9',9);</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -2341,6 +2375,10 @@
       <c r="E12">
         <v>9</v>
       </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO employee (employee_id, employee_name, salary, dept_name, manager_id) VALUES (10,'Abc10',20009,'IT10',9);</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -2358,6 +2396,10 @@
       <c r="E13">
         <v>9</v>
       </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO employee (employee_id, employee_name, salary, dept_name, manager_id) VALUES (11,'Abc11',500001,'IT11',9);</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -2375,6 +2417,10 @@
       <c r="E14">
         <v>9</v>
       </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO employee (employee_id, employee_name, salary, dept_name, manager_id) VALUES (12,'Abc12',20011,'IT12',9);</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -2392,6 +2438,10 @@
       <c r="E15">
         <v>9</v>
       </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO employee (employee_id, employee_name, salary, dept_name, manager_id) VALUES (13,'Abc13',600000,'IT13',9);</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -2409,8 +2459,12 @@
       <c r="E16">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO employee (employee_id, employee_name, salary, dept_name, manager_id) VALUES (14,'Abc14',20013,'IT14',9);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2426,8 +2480,12 @@
       <c r="E17">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO employee (employee_id, employee_name, salary, dept_name, manager_id) VALUES (15,'Abc15',20014,'IT15',9);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2443,8 +2501,12 @@
       <c r="E18">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO employee (employee_id, employee_name, salary, dept_name, manager_id) VALUES (16,'Abc16',672422,'IT16',12);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2460,8 +2522,12 @@
       <c r="E19">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO employee (employee_id, employee_name, salary, dept_name, manager_id) VALUES (17,'Abc17',20016,'IT17',12);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2477,8 +2543,12 @@
       <c r="E20">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO employee (employee_id, employee_name, salary, dept_name, manager_id) VALUES (18,'Abc18',20017,'IT18',12);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2494,8 +2564,12 @@
       <c r="E21">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO employee (employee_id, employee_name, salary, dept_name, manager_id) VALUES (19,'Abc19',20018,'IT19',12);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2511,8 +2585,12 @@
       <c r="E22">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO employee (employee_id, employee_name, salary, dept_name, manager_id) VALUES (20,'Abc20',8726424,'IT20',19);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2528,8 +2606,12 @@
       <c r="E23">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO employee (employee_id, employee_name, salary, dept_name, manager_id) VALUES (21,'Abc21',20020,'IT21',19);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2545,8 +2627,12 @@
       <c r="E24">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO employee (employee_id, employee_name, salary, dept_name, manager_id) VALUES (22,'Abc22',9284782,'IT22',19);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2561,6 +2647,10 @@
       </c>
       <c r="E25">
         <v>19</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO employee (employee_id, employee_name, salary, dept_name, manager_id) VALUES (23,'Abc23',20022,'IT23',19);</v>
       </c>
     </row>
   </sheetData>
